--- a/Processes/HR_FixedTermAppointmentExpiry/Data/New 5 Demo Case IDs.xlsx
+++ b/Processes/HR_FixedTermAppointmentExpiry/Data/New 5 Demo Case IDs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\UQ FTAE Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D39B04EB-5C02-4351-8A41-60547AB0A2DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A003DD95-C3C8-45E4-9039-E9A0100C6475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{E260B665-610A-4417-A551-0ABBF2BAC75C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E260B665-610A-4417-A551-0ABBF2BAC75C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +451,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="A2:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +500,7 @@
       <c r="A2">
         <v>43847</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>302330</v>
       </c>
       <c r="C2" t="s">
@@ -527,7 +526,7 @@
       <c r="A3">
         <v>43847</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>302159</v>
       </c>
       <c r="C3" t="s">
@@ -553,7 +552,7 @@
       <c r="A4">
         <v>43847</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>302204</v>
       </c>
       <c r="C4" t="s">
@@ -579,7 +578,7 @@
       <c r="A5">
         <v>43847</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>302432</v>
       </c>
       <c r="C5" t="s">
@@ -605,7 +604,7 @@
       <c r="A6">
         <v>43847</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>302231</v>
       </c>
       <c r="C6" t="s">
@@ -629,13 +628,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506804?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506804?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{B5FE321C-453B-46AB-8652-7A5C32B1D44D}"/>
-    <hyperlink ref="I3" r:id="rId2" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506845?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506845?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{A8C645E4-1C74-46B2-BB43-1DFC064DFA24}"/>
-    <hyperlink ref="I4" r:id="rId3" location="task/FixedTermAppointmentExpiry2.0HRReviewAndUpdate/bonita/portal/form/taskInstance/10506848?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0HRReviewAndUpdate/bonita/portal/form/taskInstance/10506848?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{98D81527-9779-40E8-824B-C45B1C378653}"/>
-    <hyperlink ref="I5" r:id="rId4" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506859?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506859?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{8BEE7F52-56DB-4301-8BEF-FEF083923F8E}"/>
-    <hyperlink ref="I6" r:id="rId5" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506900?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506900?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{6A5417EE-C14D-41EE-AC7B-C75056588A67}"/>
+    <hyperlink ref="B2" r:id="rId1" location="details/302330/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302330/200335/user/case" xr:uid="{2462C14B-A4C4-48FD-9565-596C3D15A02A}"/>
+    <hyperlink ref="I2" r:id="rId2" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506804?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506804?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{B5FE321C-453B-46AB-8652-7A5C32B1D44D}"/>
+    <hyperlink ref="B3" r:id="rId3" location="details/302159/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302159/200335/user/case" xr:uid="{B4ED106E-2425-461B-8629-8B3EAB6170D7}"/>
+    <hyperlink ref="I3" r:id="rId4" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506845?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506845?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{A8C645E4-1C74-46B2-BB43-1DFC064DFA24}"/>
+    <hyperlink ref="B4" r:id="rId5" location="details/302204/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302204/200335/user/case" xr:uid="{039AE052-5247-4EC9-AD69-5D37FB43431B}"/>
+    <hyperlink ref="I4" r:id="rId6" location="task/FixedTermAppointmentExpiry2.0HRReviewAndUpdate/bonita/portal/form/taskInstance/10506848?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0HRReviewAndUpdate/bonita/portal/form/taskInstance/10506848?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{98D81527-9779-40E8-824B-C45B1C378653}"/>
+    <hyperlink ref="B5" r:id="rId7" location="details/302432/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302432/200335/user/case" xr:uid="{906A6A72-F967-4D59-86D3-95616758620A}"/>
+    <hyperlink ref="I5" r:id="rId8" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506859?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506859?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{8BEE7F52-56DB-4301-8BEF-FEF083923F8E}"/>
+    <hyperlink ref="B6" r:id="rId9" location="details/302231/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302231/200335/user/case" xr:uid="{8D053815-14AA-4C1D-922D-0582790A2827}"/>
+    <hyperlink ref="I6" r:id="rId10" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506900?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506900?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{6A5417EE-C14D-41EE-AC7B-C75056588A67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>